--- a/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
+++ b/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\CtIEPpUESoS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="25875" windowHeight="11055"/>
   </bookViews>
@@ -13,12 +18,12 @@
     <sheet name="substitute fuels for coal" sheetId="5" r:id="rId4"/>
     <sheet name="CtIEPpUESoS" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
   <si>
     <t>Source:</t>
   </si>
@@ -191,9 +196,6 @@
     <t>CtIEPpUESoS Cost to Implement Efficiency Policy per Unit Energy Saved or Shifted</t>
   </si>
   <si>
-    <t>Policy</t>
-  </si>
-  <si>
     <t>early eqpt retirement</t>
   </si>
   <si>
@@ -338,16 +340,22 @@
     <t>2010 to 2012, RMI and Babcock and Wilcox</t>
   </si>
   <si>
-    <t>Cost per Unit Energy (2012$/BTU)</t>
-  </si>
-  <si>
     <t>substitute other fuels for natural gas</t>
+  </si>
+  <si>
+    <t>This variable supports time series data for adaptation to other regions, but as of EPS 1.5.0, we</t>
+  </si>
+  <si>
+    <t>have only time-invariant data for the U.S.</t>
+  </si>
+  <si>
+    <t>Cost ($/BTU)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -513,7 +521,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -580,9 +588,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -601,6 +606,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="6"/>
@@ -618,6 +627,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -715,7 +727,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -750,7 +762,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -959,257 +971,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="81.7109375" customWidth="1"/>
+    <col min="2" max="2" width="81.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" s="5">
         <v>2005</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="24"/>
+    </row>
+    <row r="40" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="24"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="34">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="35">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="34" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="35">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="B55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="35" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1231,20 +1259,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.1328125" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="3" max="3" width="26.1328125" customWidth="1"/>
+    <col min="4" max="4" width="23.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1252,22 +1280,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1275,12 +1303,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1309,7 +1337,7 @@
         <v>0.36555607695917408</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1324,7 +1352,7 @@
         <v>0.49267566948958574</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1339,7 +1367,7 @@
         <v>0.61937990072656646</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1350,26 +1378,26 @@
         <v>0.49253721572510872</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <f>2.93*10^-4</f>
         <v>2.9300000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="28">
         <f>D14*A17</f>
         <v>1.4431340420745687E-4</v>
       </c>
@@ -1388,124 +1416,124 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.1328125" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" customWidth="1"/>
+    <col min="5" max="5" width="29.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="31">
+        <v>88</v>
+      </c>
+      <c r="B4" s="30">
         <f>2.4*10^15</f>
         <v>2400000000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="31">
+        <v>82</v>
+      </c>
+      <c r="B5" s="30">
         <f>2.3*10^15</f>
         <v>2300000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="24"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>55</v>
       </c>
@@ -1514,23 +1542,23 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
         <v>92</v>
       </c>
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="26">
         <v>114</v>
@@ -1542,14 +1570,14 @@
         <f>284*10^9</f>
         <v>284000000000</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <f>(C25/B25)*D25</f>
         <v>54807017543.85965</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="26">
         <v>114</v>
@@ -1561,46 +1589,46 @@
         <f>284*10^9</f>
         <v>284000000000</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="31">
         <f>(C26/B26)*D26</f>
         <v>12456140350.877192</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="26"/>
       <c r="B27" s="5"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="32"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="31"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="34"/>
+        <v>81</v>
+      </c>
+      <c r="B28" s="33"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="32"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="33">
+        <v>88</v>
+      </c>
+      <c r="B29" s="32">
         <f>E25/B4</f>
         <v>2.2836257309941521E-5</v>
       </c>
       <c r="C29" s="27"/>
-      <c r="D29" s="32"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="33">
+        <v>82</v>
+      </c>
+      <c r="B30" s="32">
         <f>E26/B5</f>
         <v>5.4157131960335617E-6</v>
       </c>
       <c r="C30" s="27"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1615,19 +1643,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.265625" customWidth="1"/>
+    <col min="2" max="2" width="33.73046875" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1635,30 +1663,30 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="13"/>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
@@ -1667,7 +1695,7 @@
       </c>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
         <v>31</v>
       </c>
@@ -1676,7 +1704,7 @@
       </c>
       <c r="C9" s="13"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
         <v>33</v>
       </c>
@@ -1685,7 +1713,7 @@
       </c>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
         <v>35</v>
       </c>
@@ -1695,68 +1723,68 @@
       </c>
       <c r="C11" s="22"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="22"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="17">
         <v>0.47</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="23">
         <f>B11/(A17*A14)</f>
         <v>1.5180219566695814E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <f>2.93*10^-4</f>
         <v>2.9300000000000002E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="28">
         <f>A20*A23</f>
         <v>4.4478043330418734E-6</v>
       </c>
@@ -1771,82 +1799,1076 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.1328125" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="36">
+        <v>2018</v>
+      </c>
+      <c r="C1">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="36">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="34">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="36">
+        <v>2022</v>
+      </c>
+      <c r="G1" s="34">
+        <v>2023</v>
+      </c>
+      <c r="H1" s="36">
+        <v>2024</v>
+      </c>
+      <c r="I1" s="34">
+        <v>2025</v>
+      </c>
+      <c r="J1" s="36">
+        <v>2026</v>
+      </c>
+      <c r="K1" s="34">
+        <v>2027</v>
+      </c>
+      <c r="L1" s="36">
+        <v>2028</v>
+      </c>
+      <c r="M1" s="34">
+        <v>2029</v>
+      </c>
+      <c r="N1" s="36">
+        <v>2030</v>
+      </c>
+      <c r="O1" s="34">
+        <v>2031</v>
+      </c>
+      <c r="P1" s="36">
+        <v>2032</v>
+      </c>
+      <c r="Q1" s="34">
+        <v>2033</v>
+      </c>
+      <c r="R1" s="36">
+        <v>2034</v>
+      </c>
+      <c r="S1" s="34">
+        <v>2035</v>
+      </c>
+      <c r="T1" s="36">
+        <v>2036</v>
+      </c>
+      <c r="U1" s="34">
+        <v>2037</v>
+      </c>
+      <c r="V1" s="36">
+        <v>2038</v>
+      </c>
+      <c r="W1" s="34">
+        <v>2039</v>
+      </c>
+      <c r="X1" s="36">
+        <v>2040</v>
+      </c>
+      <c r="Y1" s="34">
+        <v>2041</v>
+      </c>
+      <c r="Z1" s="36">
+        <v>2042</v>
+      </c>
+      <c r="AA1" s="34">
+        <v>2043</v>
+      </c>
+      <c r="AB1" s="36">
+        <v>2044</v>
+      </c>
+      <c r="AC1" s="34">
+        <v>2045</v>
+      </c>
+      <c r="AD1" s="36">
+        <v>2046</v>
+      </c>
+      <c r="AE1" s="34">
+        <v>2047</v>
+      </c>
+      <c r="AF1" s="36">
+        <v>2048</v>
+      </c>
+      <c r="AG1" s="34">
+        <v>2049</v>
+      </c>
+      <c r="AH1" s="36">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="29">
+        <f>'early retirement'!A20*About!$A$59</f>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="C2" s="29">
+        <f>$B2</f>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="D2" s="29">
+        <f>$B2</f>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="E2" s="29">
+        <f t="shared" ref="E2:AH8" si="0">$B2</f>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="F2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="G2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="H2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="I2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="J2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="K2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="L2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="M2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="N2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="O2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="P2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="Q2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="R2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="S2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="T2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="U2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="V2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="W2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="X2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="Y2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="Z2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AA2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AB2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AC2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AD2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AE2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AF2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AG2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AH2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="30">
-        <f>'early retirement'!A20*About!$A$55</f>
-        <v>1.4243732995275992E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="37">
+        <f t="shared" ref="C3:R8" si="1">$B3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>59</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="29">
+        <f>'cogen and WHR + eqpt stds'!B29*About!$A$60</f>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="C4" s="29">
+        <f t="shared" si="1"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="D4" s="29">
+        <f t="shared" si="1"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="E4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="F4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="G4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="H4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="I4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="J4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="K4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="L4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="M4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="N4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="O4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="P4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="Q4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="R4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="S4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="T4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="U4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="V4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="W4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="X4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="Y4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="Z4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AA4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AB4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AC4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AD4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AE4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AF4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AG4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AH4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="29">
+        <f>'cogen and WHR + eqpt stds'!B30*About!$A$60</f>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="C5" s="29">
+        <f t="shared" si="1"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="D5" s="29">
+        <f t="shared" si="1"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="E5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="F5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="G5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="H5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="I5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="J5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="K5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="L5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="M5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="N5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="O5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="P5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="Q5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="R5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="S5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="T5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="U5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="V5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="W5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="X5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="Y5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="Z5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AA5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AB5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AC5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AD5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AE5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AF5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AG5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AH5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="30">
-        <f>'cogen and WHR + eqpt stds'!B29*About!$A$56</f>
-        <v>2.4092251461988303E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="29">
+        <f>'substitute fuels for coal'!A26*About!$A$60</f>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="C6" s="29">
+        <f t="shared" si="1"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="D6" s="29">
+        <f t="shared" si="1"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="E6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="F6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="G6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="H6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="I6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="J6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="K6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="L6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="M6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="N6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="O6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="P6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="Q6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="R6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="S6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="T6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="U6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="V6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="W6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="X6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="Y6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="Z6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AA6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AB6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AC6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AD6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AE6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AF6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AG6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AH6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="29">
+        <f>B6</f>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="C7" s="29">
+        <f t="shared" si="1"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="D7" s="29">
+        <f t="shared" si="1"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="E7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="F7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="G7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="H7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="I7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="J7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="K7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="L7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="M7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="N7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="O7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="P7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="Q7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="R7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="S7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="T7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="U7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="V7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="W7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="X7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="Y7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="Z7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AA7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AB7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AC7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AD7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AE7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AF7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AG7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AH7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="30">
-        <f>'cogen and WHR + eqpt stds'!B30*About!$A$56</f>
-        <v>5.7135774218154072E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="30">
-        <f>'substitute fuels for coal'!A26*About!$A$56</f>
-        <v>4.6924335713591759E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="30">
-        <f>B6</f>
-        <v>4.6924335713591759E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="37">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
+++ b/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\indst\CtIEPpUESoS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\indst\CtIEPpUESoS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="early retirement" sheetId="4" r:id="rId2"/>
     <sheet name="cogen and WHR + eqpt stds" sheetId="6" r:id="rId3"/>
     <sheet name="fuel type shifting" sheetId="5" r:id="rId4"/>
-    <sheet name="CtIEPpUESoS" sheetId="3" r:id="rId5"/>
+    <sheet name="India cost adjustment" sheetId="7" r:id="rId5"/>
+    <sheet name="CtIEPpUESoS" sheetId="3" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="138">
   <si>
     <t>Source:</t>
   </si>
@@ -367,15 +368,6 @@
     <t>MMBtu/yr</t>
   </si>
   <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>"Achieving Carbon Neutrality in California (Revised Report): 2045 Abatement Cost Estimates"</t>
-  </si>
-  <si>
-    <t>https://ww2.arb.ca.gov/sites/default/files/2020-09/e3_cn_draft_report_supp_data_aug2020.xlsx</t>
-  </si>
-  <si>
     <t>fuel type shifting</t>
   </si>
   <si>
@@ -464,6 +456,45 @@
   </si>
   <si>
     <t>We assume the majority of energy and costs will be from boiler conversion instead of process heaters.</t>
+  </si>
+  <si>
+    <t>For India, we adjust the US costs. We use the ratio of India:US power plant costs to adjust costs for machinery, and</t>
+  </si>
+  <si>
+    <t>the ratio of GDP per capita to adjust costs for construction and other business sector services.</t>
+  </si>
+  <si>
+    <t>see "scaling-factors.xlsx in the InputData folder for source information.</t>
+  </si>
+  <si>
+    <t>India:US cost adjustment, power plants</t>
+  </si>
+  <si>
+    <t>India:US cost adjustment, GDP per capita</t>
+  </si>
+  <si>
+    <t>Heidi Garrett-Peltier</t>
+  </si>
+  <si>
+    <t>Green versus brown: Comparing the employment impacts of energy efficiency, renewable energy, and fossil fuels using an input-output model</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S026499931630709X</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Industrial EE Costs, used only for India cost multiplier</t>
+  </si>
+  <si>
+    <t>Share of spending for machinery</t>
+  </si>
+  <si>
+    <t>Share of spending for construction and misc</t>
+  </si>
+  <si>
+    <t>Calculated India multiplier</t>
   </si>
 </sst>
 </file>
@@ -819,6 +850,55 @@
         <a:xfrm>
           <a:off x="0" y="4581525"/>
           <a:ext cx="7620000" cy="5429250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>355554</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13866767" cy="4885682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1190,23 +1270,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="81.7109375" customWidth="1"/>
+    <col min="2" max="2" width="81.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1214,219 +1294,263 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B29" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-    </row>
-    <row r="33" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    <row r="34" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="15"/>
+    </row>
+    <row r="35" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+    <row r="36" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+    <row r="37" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="15"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="25">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="26">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="25">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="B52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>74</v>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="25">
+        <v>0.50596615326007366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>3.2347480211350491E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1434,9 +1558,10 @@
     <hyperlink ref="B7" r:id="rId1"/>
     <hyperlink ref="B14" r:id="rId2"/>
     <hyperlink ref="B21" r:id="rId3"/>
+    <hyperlink ref="B28" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1444,22 +1569,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.1328125" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="3" max="3" width="26.1328125" customWidth="1"/>
+    <col min="4" max="4" width="23.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1467,22 +1594,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1490,12 +1617,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1509,7 +1636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1524,7 +1651,7 @@
         <v>0.36555607695917408</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1539,7 +1666,7 @@
         <v>0.49267566948958574</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1554,7 +1681,7 @@
         <v>0.61937990072656646</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1565,25 +1692,25 @@
         <v>0.49253721572510872</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <f>2.93*10^-4</f>
         <v>2.9300000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="19">
         <f>D14*A17</f>
         <v>1.4431340420745687E-4</v>
@@ -1601,32 +1728,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.1328125" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" customWidth="1"/>
+    <col min="5" max="5" width="29.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1635,7 +1764,7 @@
         <v>2400000000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1644,83 +1773,83 @@
         <v>2300000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="15"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>34</v>
       </c>
@@ -1729,7 +1858,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>64</v>
       </c>
@@ -1743,7 +1872,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1762,7 +1891,7 @@
         <v>54807017543.85965</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1781,13 +1910,13 @@
         <v>12456140350.877192</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="17"/>
       <c r="B27" s="5"/>
       <c r="C27" s="18"/>
       <c r="D27" s="22"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>54</v>
       </c>
@@ -1795,7 +1924,7 @@
       <c r="C28" s="18"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1806,7 +1935,7 @@
       <c r="C29" s="18"/>
       <c r="D29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1828,42 +1957,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.265625" customWidth="1"/>
+    <col min="2" max="2" width="33.73046875" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
     </row>
-    <row r="6" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="30" t="s">
         <v>86</v>
       </c>
@@ -1871,23 +2000,23 @@
         <v>87</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="31">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>89</v>
@@ -1896,12 +2025,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" s="33">
         <f>'[1]Fuel Costs - PATHWAYS'!$E$19*([1]Constants!$C$33/[1]Constants!$C$27)*[1]Constants!$D$5/1000</f>
@@ -1909,37 +2038,37 @@
       </c>
       <c r="D10" s="38"/>
     </row>
-    <row r="11" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C11" s="39">
         <f>'[1]Emission Factors - PATHWAYS'!$E$7/10^9*[1]Constants!$D$6</f>
         <v>6.3954140084752677E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C12" s="39">
         <f>'[1]Emission Factors - PATHWAYS'!$E$19*([1]Constants!$D$5/1000)</f>
         <v>52.826854199999993</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="30" t="s">
         <v>86</v>
       </c>
@@ -1950,10 +2079,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="31" t="s">
         <v>81</v>
       </c>
@@ -1967,7 +2096,7 @@
         <v>87540</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="31" t="s">
         <v>83</v>
       </c>
@@ -1981,7 +2110,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="31" t="s">
         <v>84</v>
       </c>
@@ -1995,7 +2124,7 @@
         <v>3.3475000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="31" t="s">
         <v>91</v>
       </c>
@@ -2009,7 +2138,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="31" t="s">
         <v>93</v>
       </c>
@@ -2025,40 +2154,40 @@
         <v>17674.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
       <c r="B21" s="25"/>
       <c r="C21" s="14"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="19">
         <f>C16/(C20*10^6)</f>
         <v>3.047276348247222E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="30" t="s">
         <v>86</v>
       </c>
@@ -2066,25 +2195,25 @@
         <v>87</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D30" s="25"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C31" s="31">
         <v>25</v>
       </c>
       <c r="D31" s="25"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>89</v>
@@ -2094,12 +2223,12 @@
       </c>
       <c r="D32" s="25"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="33">
         <f>'[1]Fuel Costs - PATHWAYS'!$E$19*([1]Constants!$C$33/[1]Constants!$C$27)*[1]Constants!$D$5/1000</f>
@@ -2107,73 +2236,73 @@
       </c>
       <c r="D33" s="25"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C34" s="34">
         <v>44</v>
       </c>
       <c r="D34" s="25"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C35" s="34">
         <v>34</v>
       </c>
       <c r="D35" s="25"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C36" s="34">
         <v>21</v>
       </c>
       <c r="D36" s="25"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C37" s="34">
         <v>15</v>
       </c>
       <c r="D37" s="25"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C38" s="34">
         <v>4</v>
       </c>
       <c r="D38" s="25"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
@@ -2181,7 +2310,7 @@
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="30" t="s">
         <v>86</v>
       </c>
@@ -2189,15 +2318,15 @@
         <v>87</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>88</v>
@@ -2209,9 +2338,9 @@
         <v>87540</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>88</v>
@@ -2224,9 +2353,9 @@
         <v>87540</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>89</v>
@@ -2239,7 +2368,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="31" t="s">
         <v>84</v>
       </c>
@@ -2253,7 +2382,7 @@
         <v>3.3475000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="31" t="s">
         <v>91</v>
       </c>
@@ -2267,7 +2396,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="31" t="s">
         <v>93</v>
       </c>
@@ -2283,12 +2412,12 @@
         <v>17674.8</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="19">
         <f>AVERAGE(C43:D43)/(AVERAGE(C47:D47)*10^6)</f>
         <v>6.1910177201439334E-6</v>
@@ -2302,22 +2431,69 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A29:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="25"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32">
+        <f>B29*About!A63+'India cost adjustment'!B30*About!A67</f>
+        <v>0.26915681673571207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.1328125" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -2421,144 +2597,144 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="20">
-        <f>'early retirement'!A20*About!$A$52</f>
-        <v>1.4243732995275992E-4</v>
+        <f>'early retirement'!A20*About!$A$54*'India cost adjustment'!$B$32</f>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="C2" s="20">
         <f>$B2</f>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="D2" s="20">
         <f>$B2</f>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="E2" s="20">
         <f t="shared" ref="E2:AH7" si="0">$B2</f>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="F2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="G2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="H2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="I2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="J2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="K2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="L2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="M2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="N2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="O2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="P2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="Q2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="R2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="S2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="T2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="U2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="V2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="W2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="X2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="Y2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="Z2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="AA2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="AB2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="AC2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="AD2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="AE2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="AF2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="AG2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
+        <v>3.8337978314419149E-5</v>
       </c>
       <c r="AH2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4243732995275992E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+        <v>3.8337978314419149E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2694,418 +2870,418 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="20">
-        <f>'cogen and WHR + eqpt stds'!B29*About!$A$53</f>
-        <v>2.4092251461988303E-5</v>
+        <f>'cogen and WHR + eqpt stds'!B29*About!$A$55*'India cost adjustment'!$B$32</f>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="C4" s="20">
         <f t="shared" si="1"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="D4" s="20">
         <f t="shared" si="1"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="E4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="F4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="G4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="H4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="I4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="J4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="K4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="L4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="M4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="N4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="O4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="P4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="Q4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="R4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="T4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="U4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="V4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="W4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="X4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="Y4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="Z4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="AA4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="AB4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="AC4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="AD4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="AE4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="AF4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="AG4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
+        <v>6.4845937115050767E-6</v>
       </c>
       <c r="AH4" s="20">
         <f t="shared" si="0"/>
-        <v>2.4092251461988303E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+        <v>6.4845937115050767E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="20">
-        <f>'cogen and WHR + eqpt stds'!B30*About!$A$53</f>
-        <v>5.7135774218154072E-6</v>
+        <f>'cogen and WHR + eqpt stds'!B30*About!$A$55*'India cost adjustment'!$B$32</f>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" si="1"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="D5" s="20">
         <f t="shared" si="1"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="E5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="F5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="G5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="H5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="I5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="J5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="K5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="L5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="M5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="N5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="O5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="P5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="Q5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="R5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="T5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="U5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="V5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="W5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="X5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="Y5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="Z5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="AA5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="AB5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="AC5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="AD5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="AE5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="AF5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="AG5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
+        <v>1.5378483110288719E-6</v>
       </c>
       <c r="AH5" s="20">
         <f t="shared" si="0"/>
-        <v>5.7135774218154072E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1.5378483110288719E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" s="20">
-        <f>AVERAGE('fuel type shifting'!A24,'fuel type shifting'!A50)*About!$A$53</f>
-        <v>4.8732001210763347E-6</v>
+        <f>AVERAGE('fuel type shifting'!A24,'fuel type shifting'!A50)*About!$A$55*'India cost adjustment'!$B$32</f>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" si="1"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="D6" s="20">
         <f t="shared" si="1"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="E6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="F6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="G6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="H6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="I6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="J6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="K6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="L6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="M6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="N6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="O6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="P6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="Q6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="R6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="T6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="U6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="V6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="W6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="X6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="Y6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="Z6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="AA6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="AB6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="AC6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="AD6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="AE6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="AF6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="AG6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
+        <v>1.311655031904993E-6</v>
       </c>
       <c r="AH6" s="20">
         <f t="shared" si="0"/>
-        <v>4.8732001210763347E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1.311655031904993E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>40</v>
       </c>

--- a/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
+++ b/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\indst\CtIEPpUESoS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\indst\CtIEPpUESoS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,9 +19,6 @@
     <sheet name="India cost adjustment" sheetId="7" r:id="rId5"/>
     <sheet name="CtIEPpUESoS" sheetId="3" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -910,79 +907,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Electricity Decarbonization"/>
-      <sheetName val="Industry Elec. - Boilers"/>
-      <sheetName val="Industry Elec. - Process Heat"/>
-      <sheetName val="Industry CCS - Process Heat"/>
-      <sheetName val="Industry Hydrogen &amp; SNG"/>
-      <sheetName val="MDV &amp; HDV Decarbonization"/>
-      <sheetName val="DAC &amp; BECCS"/>
-      <sheetName val="Fuel Costs - PATHWAYS"/>
-      <sheetName val="Emission Factors - PATHWAYS"/>
-      <sheetName val="Constants"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="19">
-          <cell r="E19">
-            <v>5.6539999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="7">
-          <cell r="E7">
-            <v>1.7765038912431299</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>50.07</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="5">
-          <cell r="D5">
-            <v>1055.06</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>3600000</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>229.59399999999999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>251.107</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2033,7 +1957,6 @@
         <v>105</v>
       </c>
       <c r="C10" s="33">
-        <f>'[1]Fuel Costs - PATHWAYS'!$E$19*([1]Constants!$C$33/[1]Constants!$C$27)*[1]Constants!$D$5/1000</f>
         <v>6.5242598122280206</v>
       </c>
       <c r="D10" s="38"/>
@@ -2046,7 +1969,6 @@
         <v>118</v>
       </c>
       <c r="C11" s="39">
-        <f>'[1]Emission Factors - PATHWAYS'!$E$7/10^9*[1]Constants!$D$6</f>
         <v>6.3954140084752677E-3</v>
       </c>
     </row>
@@ -2058,7 +1980,6 @@
         <v>120</v>
       </c>
       <c r="C12" s="39">
-        <f>'[1]Emission Factors - PATHWAYS'!$E$19*([1]Constants!$D$5/1000)</f>
         <v>52.826854199999993</v>
       </c>
     </row>
@@ -2231,7 +2152,6 @@
         <v>105</v>
       </c>
       <c r="C33" s="33">
-        <f>'[1]Fuel Costs - PATHWAYS'!$E$19*([1]Constants!$C$33/[1]Constants!$C$27)*[1]Constants!$D$5/1000</f>
         <v>6.5242598122280206</v>
       </c>
       <c r="D33" s="25"/>

--- a/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
+++ b/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>3.2347480211350491E-2</v>
+        <v>3.878298458735905E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="B32">
         <f>B29*About!A63+'India cost adjustment'!B30*About!A67</f>
-        <v>0.26915681673571207</v>
+        <v>0.27237456892371636</v>
       </c>
     </row>
   </sheetData>
@@ -2523,135 +2523,135 @@
       </c>
       <c r="B2" s="20">
         <f>'early retirement'!A20*About!$A$54*'India cost adjustment'!$B$32</f>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="C2" s="20">
         <f>$B2</f>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="D2" s="20">
         <f>$B2</f>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="E2" s="20">
         <f t="shared" ref="E2:AH7" si="0">$B2</f>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="F2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="G2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="H2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="I2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="J2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="K2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="L2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="M2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="N2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="O2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="P2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="Q2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="R2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="S2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="T2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="U2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="V2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="W2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="X2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="Y2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="Z2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="AA2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="AB2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="AC2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="AD2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="AE2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="AF2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="AG2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
       <c r="AH2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8337978314419149E-5</v>
+        <v>3.8796306344528134E-5</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.45">
@@ -2796,135 +2796,135 @@
       </c>
       <c r="B4" s="20">
         <f>'cogen and WHR + eqpt stds'!B29*About!$A$55*'India cost adjustment'!$B$32</f>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="C4" s="20">
         <f t="shared" si="1"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="D4" s="20">
         <f t="shared" si="1"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="E4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="F4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="G4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="H4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="I4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="J4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="K4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="L4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="M4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="N4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="O4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="P4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="Q4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="R4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="T4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="U4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="V4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="W4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="X4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="Y4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="Z4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="AA4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="AB4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="AC4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="AD4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="AE4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="AF4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="AG4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
       <c r="AH4" s="20">
         <f t="shared" si="0"/>
-        <v>6.4845937115050767E-6</v>
+        <v>6.5621166063608391E-6</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.45">
@@ -2933,135 +2933,135 @@
       </c>
       <c r="B5" s="20">
         <f>'cogen and WHR + eqpt stds'!B30*About!$A$55*'India cost adjustment'!$B$32</f>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="C5" s="20">
         <f t="shared" si="1"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="D5" s="20">
         <f t="shared" si="1"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="E5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="F5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="G5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="H5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="I5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="J5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="K5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="L5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="M5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="N5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="O5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="P5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="Q5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="R5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="T5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="U5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="V5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="W5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="X5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="Y5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="Z5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="AA5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="AB5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="AC5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="AD5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="AE5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="AF5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="AG5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
       <c r="AH5" s="20">
         <f t="shared" si="0"/>
-        <v>1.5378483110288719E-6</v>
+        <v>1.5562331872792503E-6</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.45">
@@ -3070,135 +3070,135 @@
       </c>
       <c r="B6" s="20">
         <f>AVERAGE('fuel type shifting'!A24,'fuel type shifting'!A50)*About!$A$55*'India cost adjustment'!$B$32</f>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" si="1"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="D6" s="20">
         <f t="shared" si="1"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="E6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="F6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="G6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="H6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="I6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="J6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="K6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="L6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="M6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="N6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="O6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="P6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="Q6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="R6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="T6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="U6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="V6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="W6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="X6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="Y6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="Z6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="AA6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="AB6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="AC6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="AD6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="AE6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="AF6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="AG6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
       <c r="AH6" s="20">
         <f t="shared" si="0"/>
-        <v>1.311655031904993E-6</v>
+        <v>1.3273357822571691E-6</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.45">
